--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_5mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_5mi.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">pop</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_sq_mile_1mi</t>
+    <t xml:space="preserve">pop_sq_mile_5mi</t>
   </si>
   <si>
     <t xml:space="preserve">rural_facility</t>
@@ -572,10 +572,10 @@
         <v>13.1056293233406</v>
       </c>
       <c r="R2" t="n">
-        <v>39.4594594594595</v>
+        <v>41.6216216216216</v>
       </c>
       <c r="S2" t="n">
-        <v>0.486486486486487</v>
+        <v>0.475675675675676</v>
       </c>
     </row>
     <row r="3">
@@ -631,10 +631,10 @@
         <v>11.1294509931195</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="S3" t="n">
-        <v>0.566666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -690,10 +690,10 @@
         <v>10.1818382334019</v>
       </c>
       <c r="R4" t="n">
-        <v>39</v>
+        <v>32.2857142857143</v>
       </c>
       <c r="S4" t="n">
-        <v>0.365714285714286</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         <v>14.6084983177459</v>
       </c>
       <c r="R5" t="n">
-        <v>30.3208556149733</v>
+        <v>30.9625668449198</v>
       </c>
       <c r="S5" t="n">
-        <v>0.429411764705882</v>
+        <v>0.383422459893048</v>
       </c>
     </row>
     <row r="6">
@@ -806,10 +806,10 @@
         <v>6.80743447224533</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>29.4545454545455</v>
       </c>
       <c r="S6" t="n">
-        <v>0.393636363636364</v>
+        <v>0.377272727272727</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4.02491570842668</v>
       </c>
       <c r="R7" t="n">
-        <v>33.6363636363636</v>
+        <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>1.26363636363636</v>
+        <v>0.336363636363636</v>
       </c>
     </row>
     <row r="8">
@@ -924,10 +924,10 @@
         <v>3.24084657418216</v>
       </c>
       <c r="R8" t="n">
-        <v>115.714285714286</v>
+        <v>61.4285714285714</v>
       </c>
       <c r="S8" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9">
@@ -983,10 +983,10 @@
         <v>3.3293309509454</v>
       </c>
       <c r="R9" t="n">
-        <v>124.545454545455</v>
+        <v>61.8181818181818</v>
       </c>
       <c r="S9" t="n">
-        <v>0.563636363636364</v>
+        <v>0.463636363636364</v>
       </c>
     </row>
     <row r="10">
@@ -1040,10 +1040,10 @@
         <v>13.1979319795331</v>
       </c>
       <c r="R10" t="n">
-        <v>20.4819277108434</v>
+        <v>20</v>
       </c>
       <c r="S10" t="n">
-        <v>0.255421686746988</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -1099,10 +1099,10 @@
         <v>3.02033713148773</v>
       </c>
       <c r="R11" t="n">
-        <v>20</v>
+        <v>19.047619047619</v>
       </c>
       <c r="S11" t="n">
-        <v>0.20952380952381</v>
+        <v>0.185714285714286</v>
       </c>
     </row>
   </sheetData>
